--- a/test/go/tests/serialize_test.xlsx
+++ b/test/go/tests/serialize_test.xlsx
@@ -7,20 +7,25 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Astruct" sheetId="2" r:id="rId4"/>
-    <sheet name="Bstruct" sheetId="3" r:id="rId6"/>
+    <sheet name="AstructBstruct2Use" sheetId="3" r:id="rId6"/>
+    <sheet name="AstructBstructUse" sheetId="4" r:id="rId7"/>
+    <sheet name="Bstruct" sheetId="5" r:id="rId8"/>
+    <sheet name="Dstruct" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName hidden="true" localSheetId="1" name="_xlnm._FilterDatabase">'Astruct'!$A$1:$V$1</definedName>
-    <definedName hidden="true" localSheetId="2" name="_xlnm._FilterDatabase">'Bstruct'!$A$1:$D$1</definedName>
+    <definedName hidden="true" localSheetId="0" name="_xlnm._FilterDatabase">'Astruct'!$A$1:$V$1</definedName>
+    <definedName hidden="true" localSheetId="1" name="_xlnm._FilterDatabase">'AstructBstruct2Use'!$A$1:$B$1</definedName>
+    <definedName hidden="true" localSheetId="2" name="_xlnm._FilterDatabase">'AstructBstructUse'!$A$1:$B$1</definedName>
+    <definedName hidden="true" localSheetId="3" name="_xlnm._FilterDatabase">'Bstruct'!$A$1:$D$1</definedName>
+    <definedName hidden="true" localSheetId="4" name="_xlnm._FilterDatabase">'Dstruct'!$A$1:$A$1</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -117,6 +122,12 @@
   <si>
     <t>B2
 B1</t>
+  </si>
+  <si>
+    <t>Bstrcut2</t>
+  </si>
+  <si>
+    <t>Bstruct2</t>
   </si>
   <si>
     <t>Floatfield2</t>
@@ -424,23 +435,12 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="true"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col customWidth="true" max="1" min="1" width="6"/>
@@ -617,6 +617,56 @@
   </sheetViews>
   <cols>
     <col customWidth="true" max="1" min="1" width="6"/>
+    <col customWidth="true" max="2" min="2" width="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="$A$1:$B$1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="true"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col customWidth="true" max="1" min="1" width="6"/>
+    <col customWidth="true" max="2" min="2" width="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="$A$1:$B$1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="true"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col customWidth="true" max="1" min="1" width="6"/>
     <col customWidth="true" max="2" min="2" width="12"/>
     <col customWidth="true" max="3" min="3" width="13"/>
     <col customWidth="true" max="4" min="4" width="10"/>
@@ -630,7 +680,7 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
@@ -652,7 +702,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
@@ -667,4 +717,25 @@
   </sheetData>
   <autoFilter ref="$A$1:$D$1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="true"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col customWidth="true" max="1" min="1" width="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="$A$1:$A$1"/>
+</worksheet>
 </file>
--- a/test/go/tests/serialize_test.xlsx
+++ b/test/go/tests/serialize_test.xlsx
@@ -12,24 +12,27 @@
     <sheet name="AstructBstructUse" sheetId="4" r:id="rId7"/>
     <sheet name="Bstruct" sheetId="5" r:id="rId8"/>
     <sheet name="Dstruct" sheetId="6" r:id="rId9"/>
+    <sheet name="Fstruct" sheetId="7" r:id="rId10"/>
   </sheets>
-  <definedNames>
-    <definedName hidden="true" localSheetId="0" name="_xlnm._FilterDatabase">'Astruct'!$A$1:$V$1</definedName>
-    <definedName hidden="true" localSheetId="1" name="_xlnm._FilterDatabase">'AstructBstruct2Use'!$A$1:$B$1</definedName>
-    <definedName hidden="true" localSheetId="2" name="_xlnm._FilterDatabase">'AstructBstructUse'!$A$1:$B$1</definedName>
-    <definedName hidden="true" localSheetId="3" name="_xlnm._FilterDatabase">'Bstruct'!$A$1:$D$1</definedName>
-    <definedName hidden="true" localSheetId="4" name="_xlnm._FilterDatabase">'Dstruct'!$A$1:$A$1</definedName>
-  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Associationtob</t>
+  </si>
+  <si>
+    <t>Anarrayofb</t>
+  </si>
+  <si>
+    <t>Anotherassociationtob_2</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
@@ -57,6 +60,21 @@
     <t>Bstruct</t>
   </si>
   <si>
+    <t>Bstruct2</t>
+  </si>
+  <si>
+    <t>Dstruct</t>
+  </si>
+  <si>
+    <t>Dstruct2</t>
+  </si>
+  <si>
+    <t>Dstruct3</t>
+  </si>
+  <si>
+    <t>Dstruct4</t>
+  </si>
+  <si>
     <t>Floatfield</t>
   </si>
   <si>
@@ -69,21 +87,12 @@
     <t>Duration1</t>
   </si>
   <si>
-    <t>Associationtob</t>
-  </si>
-  <si>
-    <t>Anotherassociationtob_2</t>
-  </si>
-  <si>
-    <t>Anarrayofb</t>
+    <t>Anarrayofa</t>
   </si>
   <si>
     <t>Anotherarrayofb</t>
   </si>
   <si>
-    <t>Anarrayofa</t>
-  </si>
-  <si>
     <t>AnarrayofbUse</t>
   </si>
   <si>
@@ -93,28 +102,31 @@
     <t>AnAstruct</t>
   </si>
   <si>
+    <t>StructRef</t>
+  </si>
+  <si>
+    <t>FieldRef</t>
+  </si>
+  <si>
+    <t>EnumIntRef</t>
+  </si>
+  <si>
+    <t>EnumStringRef</t>
+  </si>
+  <si>
+    <t>EnumValue</t>
+  </si>
+  <si>
+    <t>ConstIdentifierValue</t>
+  </si>
+  <si>
+    <t>TextFieldBespokeSize</t>
+  </si>
+  <si>
+    <t>TextArea</t>
+  </si>
+  <si>
     <t>A1</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00 +0000 UTC</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>CENUM_VAL1</t>
-  </si>
-  <si>
-    <t>0.000000</t>
-  </si>
-  <si>
-    <t>10.200000</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>B1</t>
@@ -124,10 +136,32 @@
 B1</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00 +0000 UTC</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>CENUM_VAL1</t>
+  </si>
+  <si>
+    <t>0.000000</t>
+  </si>
+  <si>
+    <t>10.200000</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0s
+</t>
+  </si>
+  <si>
     <t>Bstrcut2</t>
-  </si>
-  <si>
-    <t>Bstruct2</t>
   </si>
   <si>
     <t>Floatfield2</t>
@@ -180,120 +214,120 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
+<theme xmlns="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <themeElements>
+    <clrScheme name="Office">
+      <dk1>
+        <sysClr val="windowText" lastClr="000000"/>
+      </dk1>
+      <lt1>
+        <sysClr val="window" lastClr="FFFFFF"/>
+      </lt1>
+      <dk2>
+        <srgbClr val="44546A"/>
+      </dk2>
+      <lt2>
+        <srgbClr val="E7E6E6"/>
+      </lt2>
+      <accent1>
+        <srgbClr val="5B9BD5"/>
+      </accent1>
+      <accent2>
+        <srgbClr val="ED7D31"/>
+      </accent2>
+      <accent3>
+        <srgbClr val="A5A5A5"/>
+      </accent3>
+      <accent4>
+        <srgbClr val="FFC000"/>
+      </accent4>
+      <accent5>
+        <srgbClr val="4472C4"/>
+      </accent5>
+      <accent6>
+        <srgbClr val="70AD47"/>
+      </accent6>
+      <hlink>
+        <srgbClr val="0563C1"/>
+      </hlink>
+      <folHlink>
+        <srgbClr val="954F72"/>
+      </folHlink>
+    </clrScheme>
+    <fontScheme name="Office">
+      <majorFont>
+        <latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <ea typeface=""/>
+        <cs typeface=""/>
+        <font script="Jpan" typeface="游ゴシック Light"/>
+        <font script="Hang" typeface="맑은 고딕"/>
+        <font script="Hans" typeface="等线 Light"/>
+        <font script="Hant" typeface="新細明體"/>
+        <font script="Arab" typeface="Times New Roman"/>
+        <font script="Hebr" typeface="Times New Roman"/>
+        <font script="Thai" typeface="Tahoma"/>
+        <font script="Ethi" typeface="Nyala"/>
+        <font script="Beng" typeface="Vrinda"/>
+        <font script="Gujr" typeface="Shruti"/>
+        <font script="Khmr" typeface="MoolBoran"/>
+        <font script="Knda" typeface="Tunga"/>
+        <font script="Guru" typeface="Raavi"/>
+        <font script="Cans" typeface="Euphemia"/>
+        <font script="Cher" typeface="Plantagenet Cherokee"/>
+        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <font script="Tibt" typeface="Microsoft Himalaya"/>
+        <font script="Thaa" typeface="MV Boli"/>
+        <font script="Deva" typeface="Mangal"/>
+        <font script="Telu" typeface="Gautami"/>
+        <font script="Taml" typeface="Latha"/>
+        <font script="Syrc" typeface="Estrangelo Edessa"/>
+        <font script="Orya" typeface="Kalinga"/>
+        <font script="Mlym" typeface="Kartika"/>
+        <font script="Laoo" typeface="DokChampa"/>
+        <font script="Sinh" typeface="Iskoola Pota"/>
+        <font script="Mong" typeface="Mongolian Baiti"/>
+        <font script="Viet" typeface="Times New Roman"/>
+        <font script="Uigh" typeface="Microsoft Uighur"/>
+        <font script="Geor" typeface="Sylfaen"/>
+      </majorFont>
+      <minorFont>
+        <latin typeface="Calibri" panose="020F0502020204030204"/>
+        <ea typeface=""/>
+        <cs typeface=""/>
+        <font script="Jpan" typeface="游ゴシック"/>
+        <font script="Hang" typeface="맑은 고딕"/>
+        <font script="Hans" typeface="等线"/>
+        <font script="Hant" typeface="新細明體"/>
+        <font script="Arab" typeface="Arial"/>
+        <font script="Hebr" typeface="Arial"/>
+        <font script="Thai" typeface="Tahoma"/>
+        <font script="Ethi" typeface="Nyala"/>
+        <font script="Beng" typeface="Vrinda"/>
+        <font script="Gujr" typeface="Shruti"/>
+        <font script="Khmr" typeface="DaunPenh"/>
+        <font script="Knda" typeface="Tunga"/>
+        <font script="Guru" typeface="Raavi"/>
+        <font script="Cans" typeface="Euphemia"/>
+        <font script="Cher" typeface="Plantagenet Cherokee"/>
+        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <font script="Tibt" typeface="Microsoft Himalaya"/>
+        <font script="Thaa" typeface="MV Boli"/>
+        <font script="Deva" typeface="Mangal"/>
+        <font script="Telu" typeface="Gautami"/>
+        <font script="Taml" typeface="Latha"/>
+        <font script="Syrc" typeface="Estrangelo Edessa"/>
+        <font script="Orya" typeface="Kalinga"/>
+        <font script="Mlym" typeface="Kartika"/>
+        <font script="Laoo" typeface="DokChampa"/>
+        <font script="Sinh" typeface="Iskoola Pota"/>
+        <font script="Mong" typeface="Mongolian Baiti"/>
+        <font script="Viet" typeface="Arial"/>
+        <font script="Uigh" typeface="Microsoft Uighur"/>
+        <font script="Geor" typeface="Sylfaen"/>
+      </minorFont>
+    </fontScheme>
+    <fmtScheme name="Office">
+      <fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -349,8 +383,8 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
+      </fillStyleLst>
+      <lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -372,8 +406,8 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
+      </lnStyleLst>
+      <effectStyleLst>
         <a:effectStyle>
           <a:effectLst/>
         </a:effectStyle>
@@ -389,8 +423,8 @@
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
+      </effectStyleLst>
+      <bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -427,44 +461,52 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
+      </bgFillStyleLst>
+    </fmtScheme>
+  </themeElements>
+  <objectDefaults/>
+  <extraClrSchemeLst/>
+</theme>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col customWidth="true" max="1" min="1" width="6"/>
-    <col customWidth="true" max="2" min="2" width="31"/>
-    <col customWidth="true" max="3" min="3" width="14"/>
-    <col customWidth="true" max="4" min="4" width="7"/>
-    <col customWidth="true" max="5" min="5" width="9"/>
-    <col customWidth="true" max="6" min="6" width="7"/>
-    <col customWidth="true" max="7" min="7" width="12"/>
-    <col customWidth="true" max="8" min="8" width="7"/>
-    <col customWidth="true" max="9" min="9" width="13"/>
-    <col customWidth="true" max="10" min="10" width="9"/>
-    <col customWidth="true" max="11" min="11" width="12"/>
-    <col customWidth="true" max="12" min="12" width="10"/>
-    <col customWidth="true" max="13" min="13" width="21"/>
-    <col customWidth="true" max="14" min="14" width="11"/>
-    <col customWidth="true" max="15" min="15" width="16"/>
-    <col customWidth="true" max="16" min="16" width="25"/>
-    <col customWidth="true" max="17" min="17" width="12"/>
-    <col customWidth="true" max="18" min="18" width="17"/>
+    <col customWidth="true" max="2" min="2" width="16"/>
+    <col customWidth="true" max="3" min="3" width="12"/>
+    <col customWidth="true" max="4" min="4" width="25"/>
+    <col customWidth="true" max="5" min="5" width="31"/>
+    <col customWidth="true" max="6" min="6" width="14"/>
+    <col customWidth="true" max="7" min="7" width="7"/>
+    <col customWidth="true" max="8" min="8" width="9"/>
+    <col customWidth="true" max="9" min="9" width="7"/>
+    <col customWidth="true" max="10" min="10" width="12"/>
+    <col customWidth="true" max="11" min="11" width="7"/>
+    <col customWidth="true" max="12" min="12" width="13"/>
+    <col customWidth="true" max="13" min="13" width="9"/>
+    <col customWidth="true" max="14" min="14" width="10"/>
+    <col customWidth="true" max="15" min="15" width="9"/>
+    <col customWidth="true" max="18" min="16" width="10"/>
     <col customWidth="true" max="19" min="19" width="12"/>
-    <col customWidth="true" max="20" min="20" width="15"/>
-    <col customWidth="true" max="21" min="21" width="16"/>
+    <col customWidth="true" max="20" min="20" width="10"/>
+    <col customWidth="true" max="21" min="21" width="21"/>
     <col customWidth="true" max="22" min="22" width="11"/>
+    <col customWidth="true" max="23" min="23" width="12"/>
+    <col customWidth="true" max="24" min="24" width="17"/>
+    <col customWidth="true" max="25" min="25" width="15"/>
+    <col customWidth="true" max="26" min="26" width="16"/>
+    <col customWidth="true" max="28" min="27" width="11"/>
+    <col customWidth="true" max="29" min="29" width="10"/>
+    <col customWidth="true" max="30" min="30" width="12"/>
+    <col customWidth="true" max="31" min="31" width="15"/>
+    <col customWidth="true" max="32" min="32" width="11"/>
+    <col customWidth="true" max="34" min="33" width="22"/>
+    <col customWidth="true" max="35" min="35" width="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -534,83 +576,159 @@
       <c r="V1" t="s">
         <v>21</v>
       </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="P2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="Q2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="R2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="T2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="U2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>25</v>
+        <v>45</v>
+      </c>
+      <c r="W2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$V$1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -625,17 +743,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$B$1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -650,17 +766,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$B$1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -677,51 +791,72 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$D$1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col customWidth="true" max="1" min="1" width="6"/>
+    <col customWidth="true" max="2" min="2" width="12"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -736,6 +871,5 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$A$1"/>
 </worksheet>
 </file>
--- a/test/go/tests/serialize_test.xlsx
+++ b/test/go/tests/serialize_test.xlsx
@@ -13,13 +13,14 @@
     <sheet name="Bstruct" sheetId="5" r:id="rId8"/>
     <sheet name="Dstruct" sheetId="6" r:id="rId9"/>
     <sheet name="Fstruct" sheetId="7" r:id="rId10"/>
+    <sheet name="Gstruct" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -36,6 +37,9 @@
     <t>Date</t>
   </si>
   <si>
+    <t>Date2</t>
+  </si>
+  <si>
     <t>Booleanfield</t>
   </si>
   <si>
@@ -73,6 +77,9 @@
   </si>
   <si>
     <t>Dstruct4</t>
+  </si>
+  <si>
+    <t>Dstruct4s</t>
   </si>
   <si>
     <t>Floatfield</t>
@@ -142,6 +149,9 @@
     <t>0001-01-01 00:00:00 +0000 UTC</t>
   </si>
   <si>
+    <t>0001-01-01</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
@@ -161,6 +171,20 @@
 </t>
   </si>
   <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>B2
+B1
+B2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>10.300000</t>
+  </si>
+  <si>
     <t>Bstrcut2</t>
   </si>
   <si>
@@ -168,6 +192,12 @@
   </si>
   <si>
     <t>B2</t>
+  </si>
+  <si>
+    <t>Gstruct</t>
+  </si>
+  <si>
+    <t>Gstructs</t>
   </si>
 </sst>
 </file>
@@ -214,120 +244,120 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<theme xmlns="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
-  <themeElements>
-    <clrScheme name="Office">
-      <dk1>
-        <sysClr val="windowText" lastClr="000000"/>
-      </dk1>
-      <lt1>
-        <sysClr val="window" lastClr="FFFFFF"/>
-      </lt1>
-      <dk2>
-        <srgbClr val="44546A"/>
-      </dk2>
-      <lt2>
-        <srgbClr val="E7E6E6"/>
-      </lt2>
-      <accent1>
-        <srgbClr val="5B9BD5"/>
-      </accent1>
-      <accent2>
-        <srgbClr val="ED7D31"/>
-      </accent2>
-      <accent3>
-        <srgbClr val="A5A5A5"/>
-      </accent3>
-      <accent4>
-        <srgbClr val="FFC000"/>
-      </accent4>
-      <accent5>
-        <srgbClr val="4472C4"/>
-      </accent5>
-      <accent6>
-        <srgbClr val="70AD47"/>
-      </accent6>
-      <hlink>
-        <srgbClr val="0563C1"/>
-      </hlink>
-      <folHlink>
-        <srgbClr val="954F72"/>
-      </folHlink>
-    </clrScheme>
-    <fontScheme name="Office">
-      <majorFont>
-        <latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <ea typeface=""/>
-        <cs typeface=""/>
-        <font script="Jpan" typeface="游ゴシック Light"/>
-        <font script="Hang" typeface="맑은 고딕"/>
-        <font script="Hans" typeface="等线 Light"/>
-        <font script="Hant" typeface="新細明體"/>
-        <font script="Arab" typeface="Times New Roman"/>
-        <font script="Hebr" typeface="Times New Roman"/>
-        <font script="Thai" typeface="Tahoma"/>
-        <font script="Ethi" typeface="Nyala"/>
-        <font script="Beng" typeface="Vrinda"/>
-        <font script="Gujr" typeface="Shruti"/>
-        <font script="Khmr" typeface="MoolBoran"/>
-        <font script="Knda" typeface="Tunga"/>
-        <font script="Guru" typeface="Raavi"/>
-        <font script="Cans" typeface="Euphemia"/>
-        <font script="Cher" typeface="Plantagenet Cherokee"/>
-        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <font script="Tibt" typeface="Microsoft Himalaya"/>
-        <font script="Thaa" typeface="MV Boli"/>
-        <font script="Deva" typeface="Mangal"/>
-        <font script="Telu" typeface="Gautami"/>
-        <font script="Taml" typeface="Latha"/>
-        <font script="Syrc" typeface="Estrangelo Edessa"/>
-        <font script="Orya" typeface="Kalinga"/>
-        <font script="Mlym" typeface="Kartika"/>
-        <font script="Laoo" typeface="DokChampa"/>
-        <font script="Sinh" typeface="Iskoola Pota"/>
-        <font script="Mong" typeface="Mongolian Baiti"/>
-        <font script="Viet" typeface="Times New Roman"/>
-        <font script="Uigh" typeface="Microsoft Uighur"/>
-        <font script="Geor" typeface="Sylfaen"/>
-      </majorFont>
-      <minorFont>
-        <latin typeface="Calibri" panose="020F0502020204030204"/>
-        <ea typeface=""/>
-        <cs typeface=""/>
-        <font script="Jpan" typeface="游ゴシック"/>
-        <font script="Hang" typeface="맑은 고딕"/>
-        <font script="Hans" typeface="等线"/>
-        <font script="Hant" typeface="新細明體"/>
-        <font script="Arab" typeface="Arial"/>
-        <font script="Hebr" typeface="Arial"/>
-        <font script="Thai" typeface="Tahoma"/>
-        <font script="Ethi" typeface="Nyala"/>
-        <font script="Beng" typeface="Vrinda"/>
-        <font script="Gujr" typeface="Shruti"/>
-        <font script="Khmr" typeface="DaunPenh"/>
-        <font script="Knda" typeface="Tunga"/>
-        <font script="Guru" typeface="Raavi"/>
-        <font script="Cans" typeface="Euphemia"/>
-        <font script="Cher" typeface="Plantagenet Cherokee"/>
-        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <font script="Tibt" typeface="Microsoft Himalaya"/>
-        <font script="Thaa" typeface="MV Boli"/>
-        <font script="Deva" typeface="Mangal"/>
-        <font script="Telu" typeface="Gautami"/>
-        <font script="Taml" typeface="Latha"/>
-        <font script="Syrc" typeface="Estrangelo Edessa"/>
-        <font script="Orya" typeface="Kalinga"/>
-        <font script="Mlym" typeface="Kartika"/>
-        <font script="Laoo" typeface="DokChampa"/>
-        <font script="Sinh" typeface="Iskoola Pota"/>
-        <font script="Mong" typeface="Mongolian Baiti"/>
-        <font script="Viet" typeface="Arial"/>
-        <font script="Uigh" typeface="Microsoft Uighur"/>
-        <font script="Geor" typeface="Sylfaen"/>
-      </minorFont>
-    </fontScheme>
-    <fmtScheme name="Office">
-      <fillStyleLst>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -383,8 +413,8 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </fillStyleLst>
-      <lnStyleLst>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -406,8 +436,8 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-      </lnStyleLst>
-      <effectStyleLst>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst/>
         </a:effectStyle>
@@ -423,8 +453,8 @@
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
-      </effectStyleLst>
-      <bgFillStyleLst>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -461,12 +491,12 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </bgFillStyleLst>
-    </fmtScheme>
-  </themeElements>
-  <objectDefaults/>
-  <extraClrSchemeLst/>
-</theme>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -481,32 +511,34 @@
     <col customWidth="true" max="3" min="3" width="12"/>
     <col customWidth="true" max="4" min="4" width="25"/>
     <col customWidth="true" max="5" min="5" width="31"/>
-    <col customWidth="true" max="6" min="6" width="14"/>
-    <col customWidth="true" max="7" min="7" width="7"/>
-    <col customWidth="true" max="8" min="8" width="9"/>
-    <col customWidth="true" max="9" min="9" width="7"/>
-    <col customWidth="true" max="10" min="10" width="12"/>
-    <col customWidth="true" max="11" min="11" width="7"/>
-    <col customWidth="true" max="12" min="12" width="13"/>
-    <col customWidth="true" max="13" min="13" width="9"/>
-    <col customWidth="true" max="14" min="14" width="10"/>
-    <col customWidth="true" max="15" min="15" width="9"/>
-    <col customWidth="true" max="18" min="16" width="10"/>
-    <col customWidth="true" max="19" min="19" width="12"/>
-    <col customWidth="true" max="20" min="20" width="10"/>
-    <col customWidth="true" max="21" min="21" width="21"/>
-    <col customWidth="true" max="22" min="22" width="11"/>
-    <col customWidth="true" max="23" min="23" width="12"/>
-    <col customWidth="true" max="24" min="24" width="17"/>
-    <col customWidth="true" max="25" min="25" width="15"/>
-    <col customWidth="true" max="26" min="26" width="16"/>
-    <col customWidth="true" max="28" min="27" width="11"/>
-    <col customWidth="true" max="29" min="29" width="10"/>
-    <col customWidth="true" max="30" min="30" width="12"/>
-    <col customWidth="true" max="31" min="31" width="15"/>
-    <col customWidth="true" max="32" min="32" width="11"/>
-    <col customWidth="true" max="34" min="33" width="22"/>
-    <col customWidth="true" max="35" min="35" width="10"/>
+    <col customWidth="true" max="6" min="6" width="12"/>
+    <col customWidth="true" max="7" min="7" width="14"/>
+    <col customWidth="true" max="8" min="8" width="7"/>
+    <col customWidth="true" max="9" min="9" width="9"/>
+    <col customWidth="true" max="10" min="10" width="7"/>
+    <col customWidth="true" max="11" min="11" width="12"/>
+    <col customWidth="true" max="12" min="12" width="7"/>
+    <col customWidth="true" max="13" min="13" width="13"/>
+    <col customWidth="true" max="14" min="14" width="9"/>
+    <col customWidth="true" max="15" min="15" width="10"/>
+    <col customWidth="true" max="16" min="16" width="9"/>
+    <col customWidth="true" max="19" min="17" width="10"/>
+    <col customWidth="true" max="20" min="20" width="11"/>
+    <col customWidth="true" max="21" min="21" width="12"/>
+    <col customWidth="true" max="22" min="22" width="10"/>
+    <col customWidth="true" max="23" min="23" width="21"/>
+    <col customWidth="true" max="24" min="24" width="11"/>
+    <col customWidth="true" max="25" min="25" width="12"/>
+    <col customWidth="true" max="26" min="26" width="17"/>
+    <col customWidth="true" max="27" min="27" width="15"/>
+    <col customWidth="true" max="28" min="28" width="16"/>
+    <col customWidth="true" max="30" min="29" width="11"/>
+    <col customWidth="true" max="31" min="31" width="10"/>
+    <col customWidth="true" max="32" min="32" width="12"/>
+    <col customWidth="true" max="33" min="33" width="15"/>
+    <col customWidth="true" max="34" min="34" width="11"/>
+    <col customWidth="true" max="36" min="35" width="22"/>
+    <col customWidth="true" max="37" min="37" width="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -615,112 +647,350 @@
       <c r="AI1" t="s">
         <v>34</v>
       </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
         <v>41</v>
       </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="F4" t="s">
         <v>42</v>
       </c>
-      <c r="M2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="G4" t="s">
         <v>43</v>
       </c>
-      <c r="T2" t="s">
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" t="s">
         <v>44</v>
       </c>
-      <c r="U2" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" t="s">
         <v>45</v>
       </c>
-      <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>38</v>
+      <c r="N4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W4" t="s">
+        <v>43</v>
+      </c>
+      <c r="X4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -743,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -766,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -791,41 +1061,41 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -841,6 +1111,8 @@
   <cols>
     <col customWidth="true" max="1" min="1" width="6"/>
     <col customWidth="true" max="2" min="2" width="12"/>
+    <col customWidth="true" max="3" min="3" width="9"/>
+    <col customWidth="true" max="4" min="4" width="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -849,6 +1121,12 @@
       </c>
       <c r="B1" t="s">
         <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -862,13 +1140,47 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col customWidth="true" max="1" min="1" width="6"/>
+    <col customWidth="true" max="2" min="1" width="6"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col customWidth="true" max="1" min="1" width="6"/>
+    <col customWidth="true" max="2" min="2" width="12"/>
+    <col customWidth="true" max="3" min="3" width="13"/>
+    <col customWidth="true" max="4" min="4" width="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
